--- a/data/balance_sheet/2digits/total/91_BS_TOTAL.xlsx
+++ b/data/balance_sheet/2digits/total/91_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>91-Libraries, archives, museums and other cultural activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>91-Libraries, archives, museums and other cultural activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>30907.42293</v>
@@ -1484,38 +934,43 @@
         <v>35118.80318</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>76224.36546000002</v>
+        <v>76224.36545999999</v>
       </c>
       <c r="F5" s="33" t="n">
         <v>87310.19223999999</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>92450.88067</v>
+        <v>93574.64879000001</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>151692.77319</v>
+        <v>151699.60077</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>175818.33962</v>
+        <v>178699.50057</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>165448.08889</v>
+        <v>165448.0889</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>241745.99653</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>305200.27571</v>
+        <v>306972.73641</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>439933.07715</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>449534.70394</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>457710.498</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>8397.3166</v>
@@ -1530,32 +985,37 @@
         <v>5724.45887</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>14518.17708</v>
+        <v>14562.57716</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>54469.88642</v>
+        <v>54472.89633</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>52542.30747</v>
+        <v>52784.265</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>20251.35121</v>
+        <v>20251.35122</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>64901.71365999999</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>55620.97408</v>
+        <v>56205.12379000001</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>105925.38133</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>106517.82361</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>71856.412</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>2113.97556</v>
@@ -1570,32 +1030,37 @@
         <v>1023.09718</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>795.35286</v>
+        <v>811.66192</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>1316.60987</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>2338.7768</v>
+        <v>2371.41953</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>2122.39628</v>
+        <v>2122.39629</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>3230.326</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>3494.49679</v>
+        <v>3508.403310000001</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>7168.4897</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>7195.04606</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>6318.753</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>305.92415</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>771.26141</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>5784.277</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>6078.56599</v>
@@ -1647,35 +1117,40 @@
         <v>9356.999330000001</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>4034.27934</v>
+        <v>4034.279340000001</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>12428.5539</v>
+        <v>12456.64492</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>52265.0569</v>
+        <v>52268.06681</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>48634.30711</v>
+        <v>48843.62190999999</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>16462.82004</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>59036.62336000001</v>
+        <v>59036.62336</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>41109.80039</v>
+        <v>41529.64111</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>96062.84383</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>96484.10318000001</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>57484.248</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>132.95615</v>
@@ -1710,21 +1185,26 @@
       <c r="M10" s="22" t="n">
         <v>482.19</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>31.80705</v>
       </c>
       <c r="D11" s="22" t="n">
-        <v>279.19853</v>
+        <v>279.1985299999999</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>492.35195</v>
+        <v>492.3519499999999</v>
       </c>
       <c r="F11" s="21" t="n">
         <v>161.91724</v>
@@ -1742,20 +1222,25 @@
         <v>1724.84101</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>2758.936889999999</v>
+        <v>2758.93689</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>4395.33473</v>
+        <v>4545.7372</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>2404.97639</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>2549.60296</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>2269.134</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1670.33961</v>
@@ -1764,7 +1249,7 @@
         <v>1117.67968</v>
       </c>
       <c r="E12" s="23" t="n">
-        <v>554.94687</v>
+        <v>554.9468700000001</v>
       </c>
       <c r="F12" s="33" t="n">
         <v>1191.99392</v>
@@ -1773,7 +1258,7 @@
         <v>437.14532</v>
       </c>
       <c r="H12" s="33" t="n">
-        <v>878.3069400000001</v>
+        <v>878.3069399999999</v>
       </c>
       <c r="I12" s="23" t="n">
         <v>2895.77266</v>
@@ -1785,17 +1270,22 @@
         <v>2053.47804</v>
       </c>
       <c r="L12" s="23" t="n">
-        <v>2315.76155</v>
+        <v>2659.8263</v>
       </c>
       <c r="M12" s="23" t="n">
         <v>1302.75938</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>1674.019</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>73.20110000000001</v>
@@ -1865,17 +1360,22 @@
         <v>1780.45427</v>
       </c>
       <c r="L14" s="22" t="n">
-        <v>1.17881</v>
+        <v>345.24356</v>
       </c>
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>1567.95861</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>5.019729999999999</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>641.909</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>29.1799</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1297.73965</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>1032.11</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>3802.81096</v>
@@ -2010,13 +1525,13 @@
         <v>22630.79157</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>22450.73555</v>
+        <v>22869.63499</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>26571.91672</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>39769.77138</v>
+        <v>41397.69656</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>43955.79273</v>
@@ -2025,23 +1540,28 @@
         <v>64076.06758</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>147482.53407</v>
+        <v>147658.84353</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>145826.7854</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>149585.45079</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>179527.851</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>2661.18591</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>5815.991370000001</v>
+        <v>5815.991369999999</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>8073.88698</v>
@@ -2050,13 +1570,13 @@
         <v>16734.97316</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>14485.60273</v>
+        <v>14904.50217</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>20889.06636</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>32277.53002</v>
+        <v>33905.4552</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>35823.21789</v>
@@ -2065,17 +1585,22 @@
         <v>45381.6841</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>57935.57087</v>
+        <v>58096.32958</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>54467.92791000001</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>58211.04255</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>87257.825</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>750</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>84566.88197999999</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>84846.31200000001</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>111.7602</v>
@@ -2204,7 +1744,7 @@
         <v>329.04311</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>426.4993700000001</v>
+        <v>426.49937</v>
       </c>
       <c r="F23" s="21" t="n">
         <v>1472.05459</v>
@@ -2213,7 +1753,7 @@
         <v>2461.33109</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>484.31849</v>
+        <v>484.3184900000001</v>
       </c>
       <c r="I23" s="22" t="n">
         <v>1806.65473</v>
@@ -2225,17 +1765,22 @@
         <v>1994.18457</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>4060.49196</v>
+        <v>4076.04271</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>4405.83512</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>4421.38587</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>4746.093</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>267.65012</v>
@@ -2247,7 +1792,7 @@
         <v>3039.90861</v>
       </c>
       <c r="F24" s="21" t="n">
-        <v>2688.086499999999</v>
+        <v>2688.0865</v>
       </c>
       <c r="G24" s="22" t="n">
         <v>2611.24238</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>1061.99472</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>1094.491</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>55.78050999999999</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>8357.70001</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>6414.425</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>43.56578</v>
@@ -2336,7 +1891,7 @@
         <v>570.43516</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>896.1058200000001</v>
+        <v>896.10582</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>1454.59323</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>7033.55434</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>4831.295</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>485.09241</v>
@@ -2370,7 +1930,7 @@
         <v>1642.25282</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>3917.619110000001</v>
+        <v>3917.61911</v>
       </c>
       <c r="H27" s="33" t="n">
         <v>2227.31413</v>
@@ -2382,29 +1942,34 @@
         <v>3315.70936</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>6753.707629999999</v>
+        <v>6753.707630000001</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>11325.24059</v>
+        <v>11325.69722</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>94951.28711000002</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>94951.28711</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>109009.406</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>215.89467</v>
       </c>
       <c r="D28" s="22" t="n">
-        <v>532.92416</v>
+        <v>532.9241599999999</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>868.3128399999999</v>
+        <v>868.3128400000001</v>
       </c>
       <c r="F28" s="21" t="n">
         <v>942.7888</v>
@@ -2430,12 +1995,17 @@
       <c r="M28" s="22" t="n">
         <v>91034.63780000001</v>
       </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+      <c r="N28" s="22" t="n">
+        <v>101062.127</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>136.13706</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>14.28978</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>36.188</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>19.25545</v>
@@ -2548,14 +2128,19 @@
         <v>41.14389</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>58.82237</v>
-      </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+        <v>58.82236999999999</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>267.303</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>113.80523</v>
@@ -2573,10 +2158,10 @@
         <v>1506.11423</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>707.0945700000001</v>
+        <v>707.09457</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>986.2933599999999</v>
+        <v>986.2933600000001</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>1152.69816</v>
@@ -2585,17 +2170,22 @@
         <v>3229.09115</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>3003.75946</v>
+        <v>3004.21609</v>
       </c>
       <c r="M32" s="22" t="n">
         <v>3843.537159999999</v>
       </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+      <c r="N32" s="22" t="n">
+        <v>7643.788</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>7230.410910000001</v>
@@ -2730,32 +2335,37 @@
         <v>15658.43689</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>17033.71168</v>
+        <v>17671.28044</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>28206.86376</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>26764.11948</v>
+        <v>27775.02772</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>42540.58929</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>61927.07762999999</v>
+        <v>61927.07763</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>48021.15148000001</v>
+        <v>48343.56454</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>47889.82608</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>52119.34446</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>46848.814</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>154.83118</v>
@@ -2770,13 +2380,13 @@
         <v>1961.22966</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>286.3087200000001</v>
+        <v>413.23379</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>449.65458</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>5556.91835</v>
+        <v>5796.91835</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>1959.69279</v>
@@ -2788,14 +2398,19 @@
         <v>1579.09372</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>2035.36792</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>2275.36792</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>2030.297</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>784.0182199999999</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -2868,14 +2488,19 @@
         <v>5673.11089</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>2997.6</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>2789.13087</v>
@@ -2890,13 +2515,13 @@
         <v>4949.556759999999</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>6815.97342</v>
+        <v>7325.08311</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>8019.90351</v>
+        <v>8019.903510000001</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>9025.5836</v>
+        <v>9764.64602</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>14220.49553</v>
@@ -2905,17 +2530,22 @@
         <v>18182.45359</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>20527.1297</v>
+        <v>20833.5653</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>23125.5231</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>24111.74566</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>22373.111</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>488.34037</v>
@@ -2927,7 +2557,7 @@
         <v>138.37254</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>399.68214</v>
+        <v>399.6821399999999</v>
       </c>
       <c r="G41" s="22" t="n">
         <v>360.47703</v>
@@ -2939,23 +2569,28 @@
         <v>909.11779</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>972.34333</v>
+        <v>972.3433299999999</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>1238.08949</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>2286.43993</v>
+        <v>2302.41739</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>2464.65509</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>3396.576</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>3014.09027</v>
@@ -3007,16 +2647,16 @@
         <v>13962.24426</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>6311.649820000001</v>
+        <v>6311.64982</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>4597.764480000001</v>
+        <v>4599.29848</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>13106.92132</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>5102.71242</v>
+        <v>5134.55824</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>17728.89474</v>
@@ -3028,17 +2668,22 @@
         <v>11421.97272</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>20264.27997</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>20269.97579</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>19048.83</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
-        <v>894.7521</v>
+        <v>894.7520999999999</v>
       </c>
       <c r="D44" s="23" t="n">
         <v>1667.19807</v>
@@ -3070,15 +2715,20 @@
       <c r="M44" s="23" t="n">
         <v>145.28596</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>145.286</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
-        <v>788.2886100000001</v>
+        <v>788.2886099999999</v>
       </c>
       <c r="D45" s="22" t="n">
         <v>491.85873</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>90.36096000000001</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>90.361</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>106.46349</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>54.925</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>54.925</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>465.36707</v>
@@ -3210,13 +2875,13 @@
         <v>1014.4937</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>848.81385</v>
+        <v>858.19076</v>
       </c>
       <c r="H48" s="45" t="n">
         <v>5463.419980000001</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>3834.12996</v>
+        <v>3834.499960000001</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>3200.09671</v>
@@ -3225,17 +2890,22 @@
         <v>2982.34471</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>3064.68147</v>
+        <v>3070.09508</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>3864.71912</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>4047.89195</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>9936.321</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>335.29678</v>
@@ -3247,16 +2917,16 @@
         <v>358.15514</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>703.46434</v>
+        <v>703.4643400000001</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>608.34316</v>
+        <v>617.7200700000001</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>5367.12898</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>3313.87635</v>
+        <v>3314.24635</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>2207.81017</v>
@@ -3268,14 +2938,19 @@
         <v>1792.43089</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>1548.59704</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>1638.08513</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>7860.252</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>130.07029</v>
@@ -3305,17 +2980,22 @@
         <v>960.78651</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>1272.25058</v>
+        <v>1277.66419</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>2316.12208</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>2409.80682</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>2076.069</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>7961.333269999999</v>
@@ -3330,10 +3010,10 @@
         <v>34363.4775</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>32771.06225</v>
+        <v>32784.58518</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>32358.65509</v>
+        <v>32362.47276</v>
       </c>
       <c r="I51" s="46" t="n">
         <v>44813.91026999999</v>
@@ -3345,17 +3025,22 @@
         <v>36526.81725</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>34448.08984</v>
+        <v>34787.74332</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>40027.03277000001</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>40864.86068</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>38712.389</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>7529.10968</v>
@@ -3370,32 +3055,37 @@
         <v>32362.08635</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>30688.38145</v>
+        <v>30701.45104</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>29476.72967</v>
+        <v>29480.094</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>38525.30452</v>
+        <v>38525.30452000001</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>41488.8585</v>
+        <v>41488.85849999999</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>34661.12455</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>26380.11547</v>
+        <v>26668.80375</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>27750.3625</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>28495.66819</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>36055.322</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>12.78546</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>320.17</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>448.317</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>59.90983</v>
@@ -3505,17 +3205,22 @@
         <v>815.61488</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>6314.860050000001</v>
+        <v>6365.72682</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>10639.57578</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>10732.098</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>1146.4</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>172.57024</v>
@@ -3530,10 +3235,10 @@
         <v>1523.73469</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>1729.46318</v>
+        <v>1729.91652</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>2551.40202</v>
+        <v>2551.85536</v>
       </c>
       <c r="I56" s="22" t="n">
         <v>5765.83433</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>939.1116900000001</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>849.973</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>192.64408</v>
@@ -3576,7 +3286,7 @@
         <v>68.34142</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>63.78305000000001</v>
+        <v>63.78305</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>94.59804000000001</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>365.02734</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>212.357</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>7.09944</v>
@@ -3665,16 +3385,21 @@
         <v>80.98651</v>
       </c>
       <c r="L59" s="22" t="n">
-        <v>0</v>
+        <v>0.09843</v>
       </c>
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>93108.83009</v>
@@ -3729,32 +3459,37 @@
         <v>300658.10883</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>345620.29001</v>
+        <v>348498.9081300001</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>394034.97711</v>
+        <v>394134.26821</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>531098.6951199999</v>
+        <v>534334.8434199999</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>583794.59274</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>598815.08043</v>
+        <v>598815.0804300001</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>606858.6856800001</v>
+        <v>607249.22724</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>615163.25869</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>618892.54837</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>556046.29</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>96.61038000000001</v>
@@ -3766,7 +3501,7 @@
         <v>71.02808999999999</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>78.98192999999999</v>
+        <v>78.98193000000001</v>
       </c>
       <c r="G62" s="36" t="n">
         <v>100.41817</v>
@@ -3784,17 +3519,22 @@
         <v>397.7586</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>782.50633</v>
+        <v>782.5063299999999</v>
       </c>
       <c r="M62" s="36" t="n">
         <v>1108.94364</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>1468.409</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>218.01223</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>394.882</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>96.61038000000001</v>
@@ -3966,7 +3726,7 @@
         <v>71.02808999999999</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>78.98192999999999</v>
+        <v>78.98193000000001</v>
       </c>
       <c r="G67" s="22" t="n">
         <v>100.41817</v>
@@ -3987,14 +3747,19 @@
         <v>437.97174</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>890.9314099999999</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>890.93141</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>1073.527</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>48.034</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>115.828</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>47.653</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>115.828</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0.381</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>0.301</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>33.53241999999999</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>13.532</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0.301</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>1.03242</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>0</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>32.5</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,18 +4649,23 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>79473.55529999999</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>95521.48692</v>
+        <v>95521.48691999998</v>
       </c>
       <c r="E88" s="23" t="n">
         <v>152222.90285</v>
@@ -4809,13 +4674,13 @@
         <v>105155.96346</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>120832.2109</v>
+        <v>123370.05633</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>177852.79279</v>
+        <v>177940.92838</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>170549.58027</v>
+        <v>173196.41659</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>216946.84474</v>
@@ -4824,17 +4689,22 @@
         <v>234169.26963</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>227936.9134</v>
+        <v>228244.32593</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>216174.67719</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>219163.56727</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>170204.343</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>8511.09715</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>32686.00834</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>32739.708</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>10659.12792</v>
@@ -4904,17 +4779,22 @@
         <v>15140.65603</v>
       </c>
       <c r="L90" s="22" t="n">
-        <v>15303.03263</v>
+        <v>15439.84772</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>15303.03263</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>15439.84772</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>19424.592</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>7356.124870000001</v>
@@ -4929,13 +4809,13 @@
         <v>7794.82438</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>7146.75029</v>
+        <v>7794.82438</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>7679.75562</v>
+        <v>7679.755619999999</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>7216.38205</v>
+        <v>7864.456139999998</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>16183.79137</v>
@@ -4947,20 +4827,25 @@
         <v>22682.963</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>17225.75486</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>17873.82895</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>21119.871</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>26101.70563</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>27167.26201999999</v>
+        <v>27167.26202</v>
       </c>
       <c r="E92" s="22" t="n">
         <v>27382.30486</v>
@@ -4969,13 +4854,13 @@
         <v>36727.31945</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>38516.95626000001</v>
+        <v>38516.95626</v>
       </c>
       <c r="H92" s="21" t="n">
         <v>41931.67473000001</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>65826.17775999999</v>
+        <v>65826.17776000001</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>71490.88914</v>
@@ -4984,23 +4869,28 @@
         <v>91164.3959</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>101191.8327</v>
+        <v>101261.8327</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>118149.24304</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>118230.99304</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>53076.909</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>4851.04625</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>5165.80015</v>
+        <v>5165.800149999999</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>4795.27916</v>
@@ -5009,13 +4899,13 @@
         <v>5846.87758</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>6051.935999999999</v>
+        <v>6333.20613</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>6446.59585</v>
+        <v>6534.73144</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>12872.33427</v>
+        <v>13174.94685</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>13827.78364</v>
@@ -5024,17 +4914,22 @@
         <v>15652.78521</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>7085.30384</v>
+        <v>10269.93949</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>9570.2078</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>12939.3104</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>12858.233</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>8631.8112</v>
@@ -5049,13 +4944,13 @@
         <v>26113.15996</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>27625.39277</v>
+        <v>29233.89398</v>
       </c>
       <c r="H94" s="21" t="n">
         <v>39297.65983</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>71743.46229000001</v>
+        <v>73439.61194</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>113803.99831</v>
@@ -5064,17 +4959,22 @@
         <v>123975.70448</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>123544.74085</v>
+        <v>124255.11632</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>134519.59928</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>137162.56449</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>122896.352</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>17360.78179</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>21924.61011</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>22010.221</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>15882.58908</v>
@@ -5135,7 +5040,7 @@
         <v>52900.61749</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>66472.47362999999</v>
+        <v>66472.47363000001</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>89814.38999</v>
@@ -5144,17 +5049,22 @@
         <v>111209.42315</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>125007.69324</v>
+        <v>128802.10692</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>147878.90867</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>151768.72558</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>130399.636</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>11881.94957</v>
@@ -5181,20 +5091,25 @@
         <v>28259.03484</v>
       </c>
       <c r="K97" s="22" t="n">
-        <v>33706.73852000001</v>
+        <v>33706.73852</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>34387.7302</v>
+        <v>34387.73020000001</v>
       </c>
       <c r="M97" s="22" t="n">
         <v>14468.21064</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>16474.593</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>2.5</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>206.91916</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>13144.84742</v>
@@ -5249,38 +5169,43 @@
         <v>194507.84769</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>215372.38174</v>
+        <v>215708.39307</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>212232.88403</v>
+        <v>212244.03954</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>356768.06802</v>
+        <v>357352.61864</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>359696.6770200001</v>
+        <v>359696.67702</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>355400.46409</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>368970.23815</v>
+        <v>369021.85418</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>380636.44202</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>381372.08026</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>378801.158</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>3599.52214</v>
       </c>
       <c r="D100" s="22" t="n">
-        <v>5044.01112</v>
+        <v>5044.011119999999</v>
       </c>
       <c r="E100" s="22" t="n">
         <v>6527.06971</v>
@@ -5304,17 +5229,22 @@
         <v>18076.29694</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>6805.69181</v>
+        <v>6847.11935</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>7970.52463</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>8020.95757</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>3732.783</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>489.59114</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>489.59114</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>489.591</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>235.15463</v>
@@ -5369,13 +5304,13 @@
         <v>248.16334</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>234.82773</v>
+        <v>248.16334</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>269.34289</v>
+        <v>280.4984</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>2733.48558</v>
+        <v>2735.66568</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>3031.78483</v>
@@ -5384,17 +5319,22 @@
         <v>3037.2569</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>2980.12921</v>
+        <v>2991.28472</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>2982.39717</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>2996.07247</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>3005.164</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>11203.13761</v>
@@ -5449,32 +5394,37 @@
         <v>194590.40844</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>223210.49198</v>
+        <v>223533.1677</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>228176.85078</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>384993.54966</v>
+        <v>385575.92018</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>418519.14688</v>
+        <v>418519.1468800001</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>442093.3014200001</v>
+        <v>442093.30142</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>475354.86065</v>
+        <v>475394.36065</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>507354.79274</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>508084.16699</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>457564.146</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>886.98904</v>
@@ -5509,18 +5459,23 @@
       <c r="M105" s="22" t="n">
         <v>18534.2015</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>42268.773</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>3269.54714</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>5278.62071</v>
+        <v>5278.620709999999</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>7880.5791</v>
@@ -5529,32 +5484,37 @@
         <v>12877.47444</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>23969.42807</v>
+        <v>23969.42807000001</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>35988.44291000001</v>
+        <v>35988.44291</v>
       </c>
       <c r="I106" s="22" t="n">
         <v>53215.14611</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>83040.10964000001</v>
+        <v>83040.10963999998</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>109778.56523</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>131404.69713</v>
+        <v>131445.16415</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>156695.06516</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>156752.90941</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>138090.737</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>9831.438</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>345.48199</v>
@@ -5846,16 +5841,16 @@
         <v>630.7811799999999</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>895.01575</v>
+        <v>895.0157500000001</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>9294.979200000002</v>
+        <v>9299.74056</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>3810.46126</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>3553.23241</v>
+        <v>3557.99377</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>6675.56093</v>
@@ -5864,17 +5859,22 @@
         <v>8752.65582</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>7199.08529</v>
+        <v>7230.59829</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>15139.79647</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>15144.55783</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>3532.178</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>345.48199</v>
@@ -5883,19 +5883,19 @@
         <v>456.13902</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>630.7811799999999</v>
+        <v>630.7811800000001</v>
       </c>
       <c r="F115" s="21" t="n">
         <v>652.07077</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>9294.979200000002</v>
+        <v>9299.740559999998</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>3736.43107</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>3341.45638</v>
+        <v>3346.21774</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>6675.56093</v>
@@ -5904,17 +5904,22 @@
         <v>8460.00395</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>7181.91279</v>
+        <v>7213.425790000001</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>12513.00089</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>12517.76225</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>1903.313</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>2626.79558</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>1628.865</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>2069.86695</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>1910.842</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>2069.86695</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>1910.811</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>124016.25302</v>
@@ -6366,32 +6426,35 @@
         <v>255789.85906</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>387968.30107</v>
+        <v>387968.3010699999</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>438071.1706799999</v>
+        <v>442073.55692</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>545727.7503000001</v>
+        <v>545833.86898</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>706917.03474</v>
+        <v>713034.3439899998</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>749242.6816299999</v>
+        <v>749242.68164</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>840561.0769600001</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>912058.9613900001</v>
+        <v>914221.9636499999</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1055096.33584</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1068427.25231</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1013756.788</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>91-Libraries, archives, museums and other cultural activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>19446.09139</v>
@@ -6501,13 +6578,13 @@
         <v>109950.13502</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>132110.55201</v>
+        <v>134594.22023</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>173056.41757</v>
+        <v>173385.47209</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>259028.75737</v>
+        <v>263845.55043</v>
       </c>
       <c r="J132" s="33" t="n">
         <v>285256.89588</v>
@@ -6516,17 +6593,22 @@
         <v>257257.70244</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>243552.16948</v>
+        <v>246349.20827</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>270028.95384</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>280011.45699</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>215396.504</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>2262.35232</v>
@@ -6541,13 +6623,13 @@
         <v>8492.729170000001</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>9068.559539999998</v>
+        <v>9500.7464</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>47455.30998000001</v>
+        <v>47455.30998</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>64972.52458</v>
+        <v>65138.42526</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>56052.02692</v>
@@ -6559,14 +6641,19 @@
         <v>51328.98694</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>65447.52229</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>66175.18871</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>5790.274</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>1801.75223</v>
@@ -6575,19 +6662,19 @@
         <v>10048.50621</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>9013.660260000002</v>
+        <v>9013.660260000001</v>
       </c>
       <c r="F134" s="21" t="n">
         <v>7948.67575</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>6634.707449999999</v>
+        <v>7066.89431</v>
       </c>
       <c r="H134" s="21" t="n">
         <v>7084.030870000001</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>63345.83271</v>
+        <v>63511.73339</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>52649.35361999999</v>
@@ -6599,14 +6686,19 @@
         <v>51132.7326</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>65196.23296</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>65923.89938</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>5621.059</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>432.67797</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>65.03100000000001</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>145.72178</v>
@@ -6661,13 +6758,13 @@
         <v>3.61514</v>
       </c>
       <c r="G136" s="22" t="n">
-        <v>628.7285700000001</v>
+        <v>628.72857</v>
       </c>
       <c r="H136" s="21" t="n">
         <v>153.48779</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>78.87351000000001</v>
+        <v>78.87351</v>
       </c>
       <c r="J136" s="21" t="n">
         <v>255.44889</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>1.27997</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>173.6439</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>187.5383</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>169.215</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>5076.79538</v>
@@ -6938,16 +7070,16 @@
         <v>35640.97119</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>56019.14189999999</v>
+        <v>56019.1419</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>32186.12467</v>
+        <v>33739.55181</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>44187.86669</v>
+        <v>44515.28419</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>75355.13023000001</v>
+        <v>77727.77359</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>72946.82475</v>
@@ -6956,17 +7088,22 @@
         <v>85640.23763</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>85843.54695999999</v>
+        <v>87028.62763000002</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>81333.38980000002</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>85985.22769</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>122423.551</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>4733.413810000001</v>
@@ -6981,13 +7118,13 @@
         <v>18354.03771</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>19114.15025</v>
+        <v>20667.57739</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>25799.51066</v>
+        <v>26126.92816</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>40322.48993</v>
+        <v>42695.13329</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>46401.60085</v>
@@ -6996,17 +7133,22 @@
         <v>53056.43381</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>43840.31505</v>
+        <v>45024.39572</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>43229.88356</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>47865.63658999999</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>77782.499</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>79.9252</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>20055.65964</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>20754.086</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>69.70298</v>
@@ -7116,17 +7268,22 @@
         <v>1162.40085</v>
       </c>
       <c r="L147" s="25" t="n">
-        <v>1524.35916</v>
+        <v>1525.35916</v>
       </c>
       <c r="M147" s="25" t="n">
-        <v>2458.46639</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+        <v>2459.46639</v>
+      </c>
+      <c r="N147" s="25" t="n">
+        <v>6899.548</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>193.75339</v>
@@ -7141,7 +7298,7 @@
         <v>8033.76535</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>8828.207350000001</v>
+        <v>8828.207349999999</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>11971.92932</v>
@@ -7159,14 +7316,19 @@
         <v>19085.72334</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>15589.38021</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>15604.46507</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>16987.418</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>8769.29701</v>
@@ -7181,35 +7343,40 @@
         <v>31835.5031</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>80115.04575</v>
+        <v>80519.46751999999</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>67076.15007999999</v>
+        <v>67077.06095</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>96494.88399000002</v>
+        <v>96818.75181</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>121261.5328</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>46277.69468000001</v>
+        <v>46277.69467999999</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>59317.51523</v>
+        <v>60159.09713</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>66270.55851</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>69655.14358</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>51984.117</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
-        <v>8138.336200000002</v>
+        <v>8138.3362</v>
       </c>
       <c r="D150" s="22" t="n">
         <v>10541.96183</v>
@@ -7221,13 +7388,13 @@
         <v>29896.5392</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>71618.38585999999</v>
+        <v>71724.28119999998</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>59220.44233</v>
+        <v>59220.44232999999</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>81777.4341</v>
+        <v>81777.58560999999</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>112185.59132</v>
@@ -7236,17 +7403,22 @@
         <v>39100.21747</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>50477.75396</v>
+        <v>50840.12769</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>54523.7544</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>55500.49573</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>36520.953</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>268.70159</v>
@@ -7321,15 +7498,20 @@
       <c r="M152" s="22" t="n">
         <v>203.79281</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>569.109</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
-        <v>302.64844</v>
+        <v>302.6484400000001</v>
       </c>
       <c r="D153" s="22" t="n">
         <v>515.8008599999999</v>
@@ -7341,13 +7523,13 @@
         <v>1179.60055</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>1323.27028</v>
+        <v>1621.79671</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>1144.46749</v>
+        <v>1145.37836</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>1296.9765</v>
+        <v>1620.69281</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>2573.69029</v>
@@ -7356,17 +7538,22 @@
         <v>1876.90767</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>2184.03012</v>
+        <v>2662.73829</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>2178.80935</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>2733.67319</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>1242.805</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>59.61078</v>
@@ -7396,17 +7583,22 @@
         <v>5162.38323</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>6511.82951</v>
+        <v>6512.32951</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>9364.201950000001</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>11217.18185</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>13651.25</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>250.79822</v>
@@ -7458,16 +7655,16 @@
         <v>3574.162150000001</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>3273.674709999999</v>
+        <v>3273.67471</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>1331.01679</v>
+        <v>1368.04603</v>
       </c>
       <c r="H156" s="33" t="n">
         <v>1849.20997</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>5912.17065</v>
+        <v>7815.456039999999</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>10946.85812</v>
@@ -7476,17 +7673,22 @@
         <v>10249.43314</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>10365.50606</v>
+        <v>10368.21966</v>
       </c>
       <c r="M156" s="23" t="n">
         <v>15972.7616</v>
       </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+      <c r="N156" s="23" t="n">
+        <v>12158.617</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>236.68694</v>
@@ -7501,13 +7703,13 @@
         <v>1643.15284</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>745.3502099999999</v>
+        <v>782.37945</v>
       </c>
       <c r="H157" s="21" t="n">
         <v>1784.37582</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>5906.07528</v>
+        <v>7809.36067</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>10943.34858</v>
@@ -7516,17 +7718,22 @@
         <v>10239.84943</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>10357.91242</v>
+        <v>10360.62602</v>
       </c>
       <c r="M157" s="22" t="n">
         <v>14962.97804</v>
       </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+      <c r="N157" s="22" t="n">
+        <v>11557.192</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>14.11128</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>1009.78356</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>601.425</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>959.5540500000001</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>959.5540500000001</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>1398.26804</v>
@@ -7701,13 +7928,13 @@
         <v>3348.56055</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>3415.67136</v>
+        <v>3472.27457</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>5376.988270000001</v>
+        <v>5377.71442</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>6642.20793</v>
+        <v>6693.303739999999</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>10924.35282</v>
@@ -7716,23 +7943,28 @@
         <v>11410.55331</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>10683.72448</v>
+        <v>11166.11257</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>14952.86902</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>15744.1025</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>12233.575</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>864.02049</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>989.4552499999999</v>
+        <v>989.45525</v>
       </c>
       <c r="E163" s="22" t="n">
         <v>1448.90655</v>
@@ -7741,32 +7973,37 @@
         <v>2096.09561</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>1949.65306</v>
+        <v>1986.36929</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>3511.31373</v>
+        <v>3511.6547</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>3841.71264</v>
+        <v>3891.15421</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>3685.410089999999</v>
+        <v>3685.41009</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>4838.44254</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>6149.812680000001</v>
+        <v>6565.12196</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>10747.47709</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>11268.10661</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>8205.626</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>338.45013</v>
@@ -7778,16 +8015,16 @@
         <v>937.2371999999999</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>901.2349099999999</v>
+        <v>901.23491</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>1070.64175</v>
+        <v>1090.52873</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>1312.07324</v>
+        <v>1312.45842</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>1565.43823</v>
+        <v>1567.09247</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>2189.48526</v>
@@ -7796,17 +8033,22 @@
         <v>2148.68034</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>2888.75897</v>
+        <v>2955.83778</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>3256.936889999999</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>3516.2076</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>3342.963</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>195.62242</v>
@@ -7841,12 +8083,17 @@
       <c r="M165" s="22" t="n">
         <v>907.9608300000001</v>
       </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+      <c r="N165" s="22" t="n">
+        <v>636.8869999999999</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0.175</v>
@@ -7876,20 +8123,25 @@
         <v>12.4601</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>49.49892</v>
+        <v>49.49891999999999</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>40.49421000000001</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>51.82746</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>48.099</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>51.34406</v>
+        <v>51.34406000000001</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>160.72153</v>
@@ -7916,17 +8168,22 @@
         <v>3024.5758</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>10206.45292</v>
+        <v>10491.72745</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>14969.07727</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>14971.25756</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>5854.017</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>84.99112</v>
@@ -7959,14 +8216,19 @@
         <v>7676.711179999999</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>12946.47501</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>12948.6553</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>2793.451</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>73.63553999999999</v>
@@ -8001,12 +8263,17 @@
       <c r="M169" s="22" t="n">
         <v>2891.29216</v>
       </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+      <c r="N169" s="22" t="n">
+        <v>1669.548</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8036,17 +8303,22 @@
         <v>1319.27925</v>
       </c>
       <c r="L170" s="22" t="n">
-        <v>1690.80048</v>
+        <v>1948.18387</v>
       </c>
       <c r="M170" s="22" t="n">
         <v>2187.64613</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>3390.277</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0.02177</v>
@@ -8076,17 +8348,22 @@
         <v>1397.20928</v>
       </c>
       <c r="L171" s="22" t="n">
-        <v>1810.03219</v>
+        <v>1837.92333</v>
       </c>
       <c r="M171" s="22" t="n">
         <v>2454.95391</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>1339.837</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>39.96671</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>271.29438</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>677.19421</v>
@@ -8153,20 +8435,25 @@
         <v>8367.69923</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>8719.179460000001</v>
+        <v>8719.179459999999</v>
       </c>
       <c r="L173" s="23" t="n">
         <v>11839.25721</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>11082.77515</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>11507.77515</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>4952.342</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>562.41662</v>
@@ -8190,7 +8477,7 @@
         <v>2390.16836</v>
       </c>
       <c r="J174" s="21" t="n">
-        <v>4636.169970000001</v>
+        <v>4636.16997</v>
       </c>
       <c r="K174" s="22" t="n">
         <v>5538.27822</v>
@@ -8199,14 +8486,19 @@
         <v>8219.946470000001</v>
       </c>
       <c r="M174" s="22" t="n">
-        <v>7764.88478</v>
-      </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+        <v>8189.88478</v>
+      </c>
+      <c r="N174" s="22" t="n">
+        <v>2580.959</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>114.77759</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>3317.89037</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>2371.383</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0.4881</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>0.0002</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0.4881</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.0002</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>34696.8653</v>
@@ -8501,13 +8828,13 @@
         <v>145356.35337</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>200600.96899</v>
+        <v>201494.89842</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>232322.4224</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>240905.66992</v>
+        <v>241442.28633</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>281379.26637</v>
@@ -8519,14 +8846,19 @@
         <v>369412.69406</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>439965.07123</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>445506.82689</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>579655.52</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>26171.49424</v>
@@ -8535,19 +8867,19 @@
         <v>19982.33672</v>
       </c>
       <c r="E183" s="23" t="n">
-        <v>77836.41780999998</v>
+        <v>77836.41781</v>
       </c>
       <c r="F183" s="33" t="n">
         <v>131848.23463</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>164363.25433</v>
+        <v>164410.99717</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>207745.67485</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>226289.70123</v>
+        <v>226337.44407</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>262352.37477</v>
@@ -8559,14 +8891,19 @@
         <v>351478.47339</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>421723.39124</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>421771.11408</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>546973.862</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>24195.29311</v>
@@ -8575,7 +8912,7 @@
         <v>17059.48132</v>
       </c>
       <c r="E184" s="22" t="n">
-        <v>74651.82872999999</v>
+        <v>74651.82873000001</v>
       </c>
       <c r="F184" s="21" t="n">
         <v>125198.16375</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>421723.39124</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>546926.139</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>2321.17081</v>
@@ -8621,13 +8963,13 @@
         <v>7797.956169999999</v>
       </c>
       <c r="G185" s="22" t="n">
-        <v>5636.61233</v>
+        <v>5686.82199</v>
       </c>
       <c r="H185" s="21" t="n">
-        <v>7109.63245</v>
+        <v>7109.632449999999</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>3769.53399</v>
+        <v>3819.74365</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>999.4194</v>
@@ -8639,14 +8981,19 @@
         <v>505.16666</v>
       </c>
       <c r="M185" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+        <v>50.18966</v>
+      </c>
+      <c r="N185" s="22" t="n">
+        <v>50.19</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>344.96968</v>
@@ -8661,13 +9008,13 @@
         <v>1147.88529</v>
       </c>
       <c r="G186" s="22" t="n">
-        <v>514.96938</v>
+        <v>517.4362</v>
       </c>
       <c r="H186" s="21" t="n">
         <v>1012.07006</v>
       </c>
       <c r="I186" s="22" t="n">
-        <v>426.85634</v>
+        <v>429.32316</v>
       </c>
       <c r="J186" s="21" t="n">
         <v>137.57317</v>
@@ -8679,14 +9026,19 @@
         <v>44.08817</v>
       </c>
       <c r="M186" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+        <v>2.46682</v>
+      </c>
+      <c r="N186" s="22" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>0</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>513.4091599999999</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>513.4091599999999</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>4014.14452</v>
@@ -9101,13 +9503,13 @@
         <v>10891.28206</v>
       </c>
       <c r="G197" s="23" t="n">
-        <v>27140.06839</v>
+        <v>27843.86342</v>
       </c>
       <c r="H197" s="33" t="n">
         <v>18788.66162</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>10888.94009</v>
+        <v>11377.81366</v>
       </c>
       <c r="J197" s="33" t="n">
         <v>16793.9317</v>
@@ -9119,17 +9521,22 @@
         <v>14514.86395</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>12524.05597</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>16782.51493</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>27692.875</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
-        <v>938.25346</v>
+        <v>938.2534600000001</v>
       </c>
       <c r="D198" s="22" t="n">
         <v>947.86951</v>
@@ -9141,16 +9548,16 @@
         <v>1227.88677</v>
       </c>
       <c r="G198" s="22" t="n">
-        <v>4299.31407</v>
+        <v>5003.1091</v>
       </c>
       <c r="H198" s="21" t="n">
         <v>6435.72381</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>5258.25753</v>
+        <v>5747.1311</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>8602.91812</v>
+        <v>8602.918119999998</v>
       </c>
       <c r="K198" s="22" t="n">
         <v>9441.180269999999</v>
@@ -9159,14 +9566,19 @@
         <v>9603.7294</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>7669.265969999999</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>11927.72493</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>17106.943</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>3075.89106</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>4854.79</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>10585.932</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>890.4575900000001</v>
@@ -9513,20 +9965,25 @@
         <v>600.5955</v>
       </c>
       <c r="K207" s="23" t="n">
-        <v>725.8018199999999</v>
+        <v>725.80182</v>
       </c>
       <c r="L207" s="23" t="n">
         <v>1304.43478</v>
       </c>
       <c r="M207" s="23" t="n">
-        <v>1856.64679</v>
-      </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+        <v>2372.22065</v>
+      </c>
+      <c r="N207" s="23" t="n">
+        <v>2998.82</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>890.4575900000001</v>
@@ -9553,20 +10010,25 @@
         <v>600.5955</v>
       </c>
       <c r="K208" s="22" t="n">
-        <v>725.8018199999999</v>
+        <v>725.80182</v>
       </c>
       <c r="L208" s="22" t="n">
         <v>1304.43478</v>
       </c>
       <c r="M208" s="22" t="n">
-        <v>1856.64679</v>
-      </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+        <v>2372.22065</v>
+      </c>
+      <c r="N208" s="22" t="n">
+        <v>2998.82</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>3620.76895</v>
@@ -9621,7 +10088,7 @@
         <v>1343.22976</v>
       </c>
       <c r="G210" s="23" t="n">
-        <v>7700.73292</v>
+        <v>7843.12448</v>
       </c>
       <c r="H210" s="33" t="n">
         <v>4280.54287</v>
@@ -9639,14 +10106,19 @@
         <v>2114.92194</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>3347.56807</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>4067.56807</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>1989.924</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>3620.76895</v>
@@ -9661,7 +10133,7 @@
         <v>1343.22976</v>
       </c>
       <c r="G211" s="22" t="n">
-        <v>1505.13099</v>
+        <v>1647.52255</v>
       </c>
       <c r="H211" s="21" t="n">
         <v>1931.14143</v>
@@ -9679,14 +10151,19 @@
         <v>1919.92528</v>
       </c>
       <c r="M211" s="22" t="n">
-        <v>3345.01954</v>
-      </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+        <v>4065.01954</v>
+      </c>
+      <c r="N211" s="22" t="n">
+        <v>1988.865</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>2.54853</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>69873.29633</v>
@@ -9901,32 +10403,37 @@
         <v>132661.81268</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>105359.64968</v>
+        <v>105984.43827</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>140348.91033</v>
+        <v>140125.97449</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>206982.60745</v>
+        <v>207746.50723</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>182606.51938</v>
+        <v>182606.51939</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>289154.23418</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>299094.09785</v>
+        <v>298460.06132</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>345102.31077</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>342908.96843</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>218704.764</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>58092.32242</v>
@@ -9941,16 +10448,16 @@
         <v>130078.13883</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>138251.22691</v>
+        <v>139064.02159</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>164476.9756</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>193125.60129</v>
+        <v>193938.39597</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>254938.31694</v>
+        <v>254938.31695</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>364258.14633</v>
@@ -9959,20 +10466,25 @@
         <v>368637.41948</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>372353.67472</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>373166.4694</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>344831.037</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>69498.72675</v>
       </c>
       <c r="D219" s="22" t="n">
-        <v>79255.72674000001</v>
+        <v>79255.72674</v>
       </c>
       <c r="E219" s="22" t="n">
         <v>105019.27142</v>
@@ -9981,32 +10493,37 @@
         <v>124933.32142</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>132858.6482</v>
+        <v>133871.44288</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>163592.52388</v>
+        <v>163792.52388</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>190492.79157</v>
+        <v>191305.58625</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>249516.533</v>
+        <v>249516.53301</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>359246.90157</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>369165.4435</v>
+        <v>369475.4435</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>374832.29874</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>376065.09342</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>345554.056</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>19643.59117</v>
@@ -10021,10 +10538,10 @@
         <v>3085.37463</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>2837.61333</v>
+        <v>3037.61333</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>7345.551469999999</v>
+        <v>7545.551469999999</v>
       </c>
       <c r="I220" s="22" t="n">
         <v>5526.45334</v>
@@ -10036,17 +10553,22 @@
         <v>2815.415</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>8354.683779999999</v>
+        <v>8664.683780000001</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>10305.28378</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>10725.28378</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>8540.656000000001</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>8364.12255</v>
@@ -10064,7 +10586,7 @@
         <v>8357.12775</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>8356.938899999999</v>
+        <v>8356.938900000001</v>
       </c>
       <c r="I221" s="22" t="n">
         <v>8286.198770000001</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>7843.59731</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>7834.575</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>126.93571</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>16.93755</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>16.938</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>26075.53682</v>
@@ -10135,7 +10667,7 @@
         <v>31187.55563</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>40077.45701000001</v>
+        <v>40077.45701</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>53815.58181</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>169168.24572</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>185439.026</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>26075.53682</v>
@@ -10415,7 +10982,7 @@
         <v>31187.55563</v>
       </c>
       <c r="E230" s="22" t="n">
-        <v>40077.45701000001</v>
+        <v>40077.45701</v>
       </c>
       <c r="F230" s="21" t="n">
         <v>53815.58181</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>169168.24572</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>185439.026</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>3009.88969</v>
@@ -10455,10 +11027,10 @@
         <v>2322.26988</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>927.2540499999999</v>
+        <v>927.25405</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>902.79808</v>
+        <v>902.7980799999999</v>
       </c>
       <c r="G231" s="23" t="n">
         <v>1282.40929</v>
@@ -10473,29 +11045,34 @@
         <v>5448.2485</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>5664.460730000001</v>
+        <v>5664.46073</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>5950.084290000001</v>
+        <v>5950.08429</v>
       </c>
       <c r="M231" s="23" t="n">
         <v>6252.266529999999</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>8903.209999999999</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>53.68028999999999</v>
+        <v>53.68029</v>
       </c>
       <c r="D232" s="22" t="n">
-        <v>55.76882</v>
+        <v>55.76882000000001</v>
       </c>
       <c r="E232" s="22" t="n">
-        <v>52.15561999999999</v>
+        <v>52.15562000000001</v>
       </c>
       <c r="F232" s="21" t="n">
         <v>65.49797</v>
@@ -10521,12 +11098,17 @@
       <c r="M232" s="22" t="n">
         <v>3312.69568</v>
       </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+      <c r="N232" s="22" t="n">
+        <v>4776.782</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>0</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>0.37613</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>184.24976</v>
@@ -10590,23 +11177,28 @@
         <v>3915.72871</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>4693.242679999999</v>
+        <v>4693.242679999998</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>4843.45884</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>5088.50833</v>
+        <v>5088.508329999999</v>
       </c>
       <c r="M234" s="22" t="n">
         <v>1998.52061</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>1998.817</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0.30545</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>65.43129</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>1000.681</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>2771.65419</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>875.2428200000001</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>1126.93</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>13194.53408</v>
@@ -10701,32 +11303,37 @@
         <v>16121.01773</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>18992.50147</v>
+        <v>19251.06836</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>18614.19168</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>41054.87914</v>
+        <v>41313.44603</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>52782.52575</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>54760.62404</v>
+        <v>54760.62404000001</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>68142.30744</v>
+        <v>69642.29995</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>62324.19636</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>64157.79136</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>124610.202</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-20613.38512</v>
@@ -10741,13 +11348,13 @@
         <v>-56295.70692</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-70394.33410000001</v>
+        <v>-70811.41599000001</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-109675.1597</v>
+        <v>-109821.57294</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-103785.78825</v>
+        <v>-104109.83908</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-106394.75966</v>
@@ -10756,20 +11363,25 @@
         <v>-210989.26398</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-228839.18957</v>
+        <v>-230694.28402</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-289895.83106</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-292471.26885</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-279485.291</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>-9885.601559999999</v>
+        <v>-9885.601560000001</v>
       </c>
       <c r="D239" s="23" t="n">
         <v>-7934.24397</v>
@@ -10781,32 +11393,37 @@
         <v>-11960.01685</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-34766.83196</v>
+        <v>-34796.32305</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>1497.87323</v>
+        <v>1421.35063</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-29370.15783</v>
+        <v>-29353.56879</v>
       </c>
       <c r="J239" s="33" t="n">
         <v>-106435.41342</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>-62569.78611000001</v>
+        <v>-62569.78610999999</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-39607.73222000001</v>
+        <v>-39886.66681</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>24899.7585</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>22635.46427</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-165593.42</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>718.8138</v>
@@ -10821,13 +11438,13 @@
         <v>3680.35141</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>2594.65846</v>
+        <v>2663.69635</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>23039.22967</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>11251.86436</v>
+        <v>11268.4534</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>5787.69069</v>
@@ -10839,14 +11456,19 @@
         <v>30016.81901</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>86296.2645</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>86303.71102000002</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>9646.867</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>10604.41536</v>
@@ -10861,10 +11483,10 @@
         <v>15640.36826</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>37361.49041999999</v>
+        <v>37460.0194</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>21541.35644</v>
+        <v>21617.87904</v>
       </c>
       <c r="I241" s="22" t="n">
         <v>40622.02219</v>
@@ -10876,17 +11498,22 @@
         <v>80762.52434999999</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>69624.55123</v>
+        <v>69903.48581999999</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>61396.50599999999</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>63668.24675</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>175240.287</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>124016.25302</v>
@@ -10901,29 +11528,32 @@
         <v>387968.30107</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>438071.17068</v>
+        <v>442073.55692</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>545727.7503</v>
+        <v>545833.86898</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>706917.03474</v>
+        <v>713034.34399</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>749242.68163</v>
+        <v>749242.68164</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>840561.0769600001</v>
+        <v>840561.07696</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>912058.96139</v>
+        <v>914221.9636499999</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1055096.33584</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1068427.25231</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1013756.788</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>42</v>
@@ -10957,29 +11590,32 @@
         <v>58</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I244" s="52" t="n">
+        <v>74</v>
+      </c>
+      <c r="J244" s="53" t="n">
         <v>73</v>
-      </c>
-      <c r="J244" s="53" t="n">
-        <v>72</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>84</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>85</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>91</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>90</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>